--- a/Wine_Quality/outputs/train_40_test_60/wq_train_40_test_60_depth_accuracy.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/wq_train_40_test_60_depth_accuracy.xlsx
@@ -458,25 +458,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7581431136188767</v>
+        <v>0.7460887407027443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7519876891510644</v>
+        <v>0.7637855860477045</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7676327263400872</v>
+        <v>0.771736342651962</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7691715824570403</v>
+        <v>0.7763529110028212</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7758399589638368</v>
+        <v>0.7740446268273916</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7771223390612978</v>
+        <v>0.774557578866376</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7848166196460631</v>
+        <v>0.7622467299307515</v>
       </c>
     </row>
   </sheetData>

--- a/Wine_Quality/outputs/train_40_test_60/wq_train_40_test_60_depth_accuracy.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/wq_train_40_test_60_depth_accuracy.xlsx
@@ -458,25 +458,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7460887407027443</v>
+        <v>74.61</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7637855860477045</v>
+        <v>76.38</v>
       </c>
       <c r="D2" t="n">
-        <v>0.771736342651962</v>
+        <v>77.17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7763529110028212</v>
+        <v>77.64</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7740446268273916</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.774557578866376</v>
+        <v>77.45999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7622467299307515</v>
+        <v>76.22</v>
       </c>
     </row>
   </sheetData>
